--- a/medicine/Pharmacie/Tabac_indien/Tabac_indien.xlsx
+++ b/medicine/Pharmacie/Tabac_indien/Tabac_indien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lobelia inflata
 Le tabac indien (Lobelia inflata) est une espèce de plantes à fleurs de la famille des Campanulaceae. C'est une plante herbacée originaire de l'est de l'Amérique du Nord parfois utilisée comme substitut du tabac.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve depuis le sud-est du Canada (Nouvelle-Écosse au sud de l'Ontario) à travers l'est des États-Unis jusqu'à l'Alabama et, à l'ouest, le Kansas ainsi que dans les forêts tropicales humides.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée annuelle ou bisannuelle de 15 à 100 cm de hauteur, avec des tiges portant de minuscules poils.
 Ses feuilles font généralement environ 8 cm de long et sont ovales et dentées.
@@ -576,10 +592,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lobelia inflata est connue comme plante de remplacement du tabac. La lobéline - un des alcaloïdes de type pipéridine contenu dans la lobélia - agit chimiquement comme la nicotine mais sans induire d'addiction. C'est une des principales plantes prescrites en phytothérapie pour se sevrer du tabac[2].
-Principaux effets[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lobelia inflata est connue comme plante de remplacement du tabac. La lobéline - un des alcaloïdes de type pipéridine contenu dans la lobélia - agit chimiquement comme la nicotine mais sans induire d'addiction. C'est une des principales plantes prescrites en phytothérapie pour se sevrer du tabac.
+Principaux effets :
 stimulant respiratoire
 antispasmodique
 expectorant
@@ -587,10 +605,10 @@
 stimule la transpiration
 stimule le centre respiratoire du cerveau
 aurait une action anti-dépressive
-Principaux constituants[2] :
+Principaux constituants :
 alcaloïdes de type pipéridine (principalement la lobéline)
 acides carboxyliques
-Voies d'administration[2] :
+Voies d'administration :
 externe : pour traiter les entorses et les problèmes de dos d'origine musculaire
 interne (par voie orale)
 Utilisée à fortes doses lors de rites pratiqués par certains Indiens d'Amérique du Nord, elle a des pouvoirs enthéogènes.
